--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Desktop\PH COVID-19 Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7109BE-A029-4DA4-82E4-18CB273E35DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971C3D7-65C4-4252-93AB-85422E157F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Residency</t>
   </si>
@@ -282,7 +282,10 @@
     <t>Luzon Total</t>
   </si>
   <si>
-    <t>Vimin</t>
+    <t>South Cotabato</t>
+  </si>
+  <si>
+    <t>ViMin Total</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +455,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,6 +560,42 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,40 +617,10 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,8 +631,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC99"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FF00CC99"/>
       <color rgb="FFFF5050"/>
       <color rgb="FF666699"/>
       <color rgb="FF66FF33"/>
@@ -930,11 +951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +994,7 @@
       <c r="I1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -982,28 +1003,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:C99, G56, K2)</f>
-        <v>2084</v>
+        <f>SUM(C2:C100, G56, K2)</f>
+        <v>2311</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:D99, H56)</f>
-        <v>88</v>
+        <f>SUM(D2:D100, H56)</f>
+        <v>96</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="H2:I2" si="0">SUM(E2:E99, I56)</f>
-        <v>49</v>
+        <f>SUM(E2:E100, I56)</f>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1025,20 +1046,20 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="K4" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="45" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1047,29 +1068,29 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="G5">
         <f>SUM(C2:C18)</f>
-        <v>1150</v>
+        <v>1319</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:I5" si="1">SUM(D2:D18)</f>
-        <v>64</v>
+        <f t="shared" ref="H5:I5" si="0">SUM(D2:D18)</f>
+        <v>71</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>1332</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1091,47 +1112,47 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8">
         <f>SUM(C20:C21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:I8" si="2">SUM(D20:D21)</f>
+        <f t="shared" ref="H8:I8" si="1">SUM(D20:D21)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,17 +1160,17 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1157,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1165,18 +1186,18 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1186,14 +1207,14 @@
       </c>
       <c r="G11">
         <f>SUM(C23:C25)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <f>SUM(D23:D25)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="H11:I11" si="3">SUM(E23:E25)</f>
+        <f t="shared" ref="I11" si="2">SUM(E23:E25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1202,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1216,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1224,18 +1245,18 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1245,14 +1266,14 @@
       </c>
       <c r="G14">
         <f>SUM(C27:C32)</f>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:I14" si="4">SUM(D27:D32)</f>
+        <f t="shared" ref="H14:I14" si="3">SUM(D27:D32)</f>
         <v>5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1275,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1283,11 +1304,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1304,14 +1325,14 @@
       </c>
       <c r="G17">
         <f>SUM(C34:C38)</f>
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:I17" si="5">SUM(D34:D38)</f>
+        <f t="shared" ref="H17:I17" si="4">SUM(D34:D38)</f>
         <v>11</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -1349,20 +1370,16 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <f>RANK(C20, $C$20:$C$72)</f>
-        <v>20</v>
-      </c>
       <c r="G20">
         <f>SUM(C40:C42)</f>
         <v>3</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:I20" si="6">SUM(D40:D42)</f>
+        <f t="shared" ref="H20:I20" si="5">SUM(D40:D42)</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1371,17 +1388,13 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F72" si="7">RANK(C21, $C$20:$C$72)</f>
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,28 +1409,24 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="7"/>
-        <v>9</v>
       </c>
       <c r="G23">
         <f>SUM(C44)</f>
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:I23" si="8">SUM(D44)</f>
+        <f t="shared" ref="H23:I23" si="6">SUM(D44)</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1426,17 +1435,13 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="7"/>
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,10 +1456,6 @@
       </c>
       <c r="E25">
         <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="7"/>
-        <v>17</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>70</v>
@@ -1468,11 +1469,11 @@
         <v>17</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:I26" si="9">SUM(D46:D49)</f>
+        <f t="shared" ref="H26:I26" si="7">SUM(D46:D49)</f>
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1481,17 +1482,13 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="7"/>
-        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1499,17 +1496,13 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="7"/>
-        <v>11</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>71</v>
@@ -1522,28 +1515,24 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="7"/>
-        <v>20</v>
       </c>
       <c r="G29">
         <f>SUM(C51:C52)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:I29" si="10">SUM(D51:D52)</f>
-        <v>1</v>
+        <f t="shared" ref="H29:I29" si="8">SUM(D51:D52)</f>
+        <v>2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -1552,17 +1541,13 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="7"/>
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,17 +1555,13 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="7"/>
-        <v>28</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>72</v>
@@ -1593,28 +1574,24 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="7"/>
-        <v>28</v>
       </c>
       <c r="G32">
         <f>SUM(C54)</f>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:I32" si="11">SUM(D54)</f>
+        <f t="shared" ref="H32:I32" si="9">SUM(D54)</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1623,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1631,43 +1608,35 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>6</v>
       </c>
       <c r="G35">
         <f>SUM(C56)</f>
         <v>2</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:I35" si="12">SUM(D56)</f>
+        <f t="shared" ref="H35:I35" si="10">SUM(D56)</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1676,17 +1645,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36">
         <v>3</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1694,7 +1659,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1702,15 +1667,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -1725,20 +1686,16 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
       <c r="G38">
         <f>SUM(C58:C59)</f>
         <v>3</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:I38" si="13">SUM(D58:D59)</f>
+        <f t="shared" ref="H38:I38" si="11">SUM(D58:D59)</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1755,15 +1712,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -1778,20 +1731,16 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
       <c r="G41">
         <f>SUM(C61:C64)</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:I41" si="14">SUM(D61:D64)</f>
+        <f t="shared" ref="H41:I41" si="12">SUM(D61:D64)</f>
         <v>2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -1808,17 +1757,13 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -1833,20 +1778,16 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
       <c r="G44">
-        <f>SUM(C66)</f>
-        <v>1</v>
+        <f>SUM(C66:C67)</f>
+        <v>2</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:I44" si="15">SUM(D66)</f>
+        <f t="shared" ref="H44:I44" si="13">SUM(D66:D67)</f>
         <v>1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1863,15 +1804,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1886,10 +1823,6 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -1913,10 +1846,6 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -1931,27 +1860,23 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G50">
-        <f>SUM(C68:C69)</f>
+        <f>SUM(C69:C70)</f>
         <v>11</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50:I50" si="16">SUM(D68:D69)</f>
+        <f t="shared" ref="H50" si="14">SUM(D69:D70)</f>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="16"/>
+        <f>SUM(E69:E70)</f>
         <v>1</v>
       </c>
     </row>
@@ -1963,14 +1888,10 @@
         <v>25</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="7"/>
-        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,7 +1899,7 @@
         <v>46</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1986,27 +1907,23 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G53">
-        <f>SUM(C71:C72)</f>
-        <v>7</v>
+        <f>SUM(C72:C73)</f>
+        <v>8</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53:I53" si="17">SUM(D71:D72)</f>
+        <f t="shared" ref="H53" si="15">SUM(D72:D73)</f>
         <v>2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="17"/>
+        <f>SUM(E72:E73)</f>
         <v>0</v>
       </c>
     </row>
@@ -2023,17 +1940,13 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
@@ -2048,10 +1961,6 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
       <c r="G56">
         <v>3</v>
       </c>
@@ -2075,10 +1984,6 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -2093,27 +1998,19 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61">
         <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="7"/>
-        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,17 +2018,13 @@
         <v>52</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="7"/>
-        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2139,17 +2032,13 @@
         <v>53</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="7"/>
-        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2165,103 +2054,100 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>10</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71">
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
         <v>2</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="7"/>
-        <v>28</v>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G7:I7"/>
@@ -2273,13 +2159,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Desktop\PH COVID-19 Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971C3D7-65C4-4252-93AB-85422E157F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F3D8E-0C07-46C5-A958-981EFC8ED3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -563,6 +563,33 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,33 +621,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,8 +954,8 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,12 +1054,12 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="K4" s="45" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="27" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1120,11 +1120,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1151,7 +1151,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1186,11 +1186,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1245,11 +1245,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1304,11 +1304,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1351,11 +1351,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1398,11 +1398,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1457,11 +1457,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
@@ -1504,11 +1504,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -1563,11 +1563,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1608,11 +1608,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -1667,11 +1667,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -1712,11 +1712,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -1759,11 +1759,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -1804,11 +1804,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1860,11 +1860,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G50">
@@ -1907,11 +1907,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G53">
@@ -1942,11 +1942,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
@@ -2141,13 +2141,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G7:I7"/>
@@ -2159,6 +2152,13 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F3D8E-0C07-46C5-A958-981EFC8ED3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F07443-F0FE-4583-A65F-0089A9F6C27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Residency</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Cordillera Administrative Region - CAR</t>
   </si>
   <si>
-    <t>Autonomous Region in Muslim Mindanao - ARMM</t>
-  </si>
-  <si>
     <t>Foreign</t>
   </si>
   <si>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>ViMin Total</t>
+  </si>
+  <si>
+    <t>Albay</t>
+  </si>
+  <si>
+    <t>Bangsamoro Autonomous Region in Muslim Mindanao - BARMM</t>
   </si>
 </sst>
 </file>
@@ -951,11 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,9 +968,9 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -995,7 +998,7 @@
         <v>62</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1003,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -1012,19 +1015,19 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:C100, G56, K2)</f>
-        <v>2311</v>
+        <f>SUM(C2:C101, G56, K2)</f>
+        <v>2633</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:D100, H56)</f>
+        <f>SUM(D2:D101, H56)</f>
         <v>96</v>
       </c>
       <c r="I2">
-        <f>SUM(E2:E100, I56)</f>
+        <f>SUM(E2:E101, I56)</f>
         <v>50</v>
       </c>
       <c r="K2">
-        <v>627</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1032,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1046,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1060,7 +1063,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="K4" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1068,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -1078,7 +1081,7 @@
       </c>
       <c r="G5">
         <f>SUM(C2:C18)</f>
-        <v>1319</v>
+        <v>1507</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="0">SUM(D2:D18)</f>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>1557</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1098,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1112,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1131,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1141,7 +1144,7 @@
       </c>
       <c r="G8">
         <f>SUM(C20:C21)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:I8" si="1">SUM(D20:D21)</f>
@@ -1152,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1160,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="K9">
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1197,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1207,7 +1210,7 @@
       </c>
       <c r="G11">
         <f>SUM(C23:C25)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <f>SUM(D23:D25)</f>
@@ -1223,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1237,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1256,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1266,7 +1269,7 @@
       </c>
       <c r="G14">
         <f>SUM(C27:C32)</f>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:I14" si="3">SUM(D27:D32)</f>
@@ -1282,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1296,7 +1299,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1325,7 +1328,7 @@
       </c>
       <c r="G17">
         <f>SUM(C34:C38)</f>
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:I17" si="4">SUM(D34:D38)</f>
@@ -1341,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1362,7 +1365,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1388,7 +1391,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1418,8 +1421,8 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(C44)</f>
-        <v>1</v>
+        <f>SUM(C44:C45)</f>
+        <v>3</v>
       </c>
       <c r="H23">
         <f t="shared" ref="H23:I23" si="6">SUM(D44)</f>
@@ -1435,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1465,11 +1468,11 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
-        <f>SUM(C46:C49)</f>
-        <v>17</v>
+        <f>SUM(C47:C50)</f>
+        <v>18</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:I26" si="7">SUM(D46:D49)</f>
+        <f t="shared" ref="H26:I26" si="7">SUM(D47:D50)</f>
         <v>1</v>
       </c>
       <c r="I26">
@@ -1482,7 +1485,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1496,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1524,11 +1527,11 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f>SUM(C51:C52)</f>
-        <v>30</v>
+        <f>SUM(C52:C53)</f>
+        <v>34</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:I29" si="8">SUM(D51:D52)</f>
+        <f t="shared" ref="H29:I29" si="8">SUM(D52:D53)</f>
         <v>2</v>
       </c>
       <c r="I29">
@@ -1541,7 +1544,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1555,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1583,11 +1586,11 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <f>SUM(C54)</f>
+        <f>SUM(C55)</f>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:I32" si="9">SUM(D54)</f>
+        <f t="shared" ref="H32:I32" si="9">SUM(D55)</f>
         <v>0</v>
       </c>
       <c r="I32">
@@ -1595,12 +1598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1614,12 +1617,12 @@
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1628,11 +1631,11 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>SUM(C56)</f>
+        <f>SUM(C57)</f>
         <v>2</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:I35" si="10">SUM(D56)</f>
+        <f t="shared" ref="H35:I35" si="10">SUM(D57)</f>
         <v>0</v>
       </c>
       <c r="I35">
@@ -1640,12 +1643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -1654,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
@@ -1673,25 +1676,25 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>SUM(C59:C60)</f>
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f>SUM(C58:C59)</f>
-        <v>3</v>
-      </c>
       <c r="H38">
-        <f t="shared" ref="H38:I38" si="11">SUM(D58:D59)</f>
+        <f t="shared" ref="H38:I38" si="11">SUM(D59:D60)</f>
         <v>0</v>
       </c>
       <c r="I38">
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1721,7 @@
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>38</v>
       </c>
@@ -1732,19 +1735,20 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>SUM(C61:C64)</f>
+        <f>SUM(C62:C65)</f>
         <v>61</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:I41" si="12">SUM(D61:D64)</f>
+        <f t="shared" ref="H41:I41" si="12">SUM(D62:D65)</f>
         <v>2</v>
       </c>
       <c r="I41">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>39</v>
       </c>
@@ -1758,19 +1762,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G43" s="32" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1779,11 +1783,11 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <f>SUM(C66:C67)</f>
-        <v>2</v>
+        <f>SUM(C67:C68)</f>
+        <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:I44" si="13">SUM(D66:D67)</f>
+        <f t="shared" ref="H44:I44" si="13">SUM(D67:D68)</f>
         <v>1</v>
       </c>
       <c r="I44">
@@ -1791,57 +1795,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G46" s="33" t="s">
         <v>77</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1849,7 +1855,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1867,100 +1873,96 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
       <c r="G50">
-        <f>SUM(C69:C70)</f>
-        <v>11</v>
+        <f>SUM(C70:C71)</f>
+        <v>13</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="14">SUM(D69:D70)</f>
+        <f t="shared" ref="H50" si="14">SUM(D70:D71)</f>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>SUM(E69:E70)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+        <f>SUM(E70:E71)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
       <c r="G53">
-        <f>SUM(C72:C73)</f>
-        <v>8</v>
+        <f>SUM(C73:C74)</f>
+        <v>10</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53" si="15">SUM(D72:D73)</f>
+        <f t="shared" ref="H53" si="15">SUM(D73:D74)</f>
         <v>2</v>
       </c>
       <c r="I53">
-        <f>SUM(E72:E73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+        <f>SUM(E73:E74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
       <c r="G55" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="G56">
         <v>3</v>
       </c>
@@ -1971,57 +1973,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61">
-        <v>51</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2029,10 +2031,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2043,99 +2045,113 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72">
-        <v>7</v>
-      </c>
-      <c r="D72">
+      <c r="C71">
         <v>2</v>
       </c>
-      <c r="E72">
-        <v>0</v>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>0</v>
       </c>
     </row>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Desktop\PH COVID-19 Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F07443-F0FE-4583-A65F-0089A9F6C27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CB35D-3225-48A3-8E9B-61F93D6B1058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -957,8 +957,8 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Desktop\PH COVID-19 Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CB35D-3225-48A3-8E9B-61F93D6B1058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00DB8CE-82BA-4208-80C1-CA4E3C66DAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Residency</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Bangsamoro Autonomous Region in Muslim Mindanao - BARMM</t>
+  </si>
+  <si>
+    <t>Samar</t>
+  </si>
+  <si>
+    <t>Misamis Occidental</t>
   </si>
 </sst>
 </file>
@@ -572,6 +578,39 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,39 +630,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,11 +960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -1015,19 +1021,19 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:C101, G56, K2)</f>
-        <v>2633</v>
+        <f>SUM(C2:C103, G56, K2)</f>
+        <v>3018</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:D101, H56)</f>
+        <f>SUM(D2:D103, H56)</f>
         <v>96</v>
       </c>
       <c r="I2">
-        <f>SUM(E2:E101, I56)</f>
+        <f>SUM(E2:E103, I56)</f>
         <v>50</v>
       </c>
       <c r="K2">
-        <v>701</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1049,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1057,11 +1063,11 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="K4" s="27" t="s">
         <v>81</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -1081,7 +1087,7 @@
       </c>
       <c r="G5">
         <f>SUM(C2:C18)</f>
-        <v>1507</v>
+        <v>1634</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="0">SUM(D2:D18)</f>
@@ -1093,7 +1099,7 @@
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>1797</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1101,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1115,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1123,18 +1129,18 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1144,7 +1150,7 @@
       </c>
       <c r="G8">
         <f>SUM(C20:C21)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:I8" si="1">SUM(D20:D21)</f>
@@ -1163,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1173,7 +1179,7 @@
       </c>
       <c r="K9">
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1181,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1189,18 +1195,18 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1226,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1240,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1248,18 +1254,18 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="G14">
         <f>SUM(C27:C32)</f>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:I14" si="3">SUM(D27:D32)</f>
@@ -1285,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1307,11 +1313,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1328,7 +1334,7 @@
       </c>
       <c r="G17">
         <f>SUM(C34:C38)</f>
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:I17" si="4">SUM(D34:D38)</f>
@@ -1354,11 +1360,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1375,7 +1381,7 @@
       </c>
       <c r="G20">
         <f>SUM(C40:C42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:I20" si="5">SUM(D40:D42)</f>
@@ -1391,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1401,18 +1407,18 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1422,10 +1428,10 @@
       </c>
       <c r="G23">
         <f>SUM(C44:C45)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:I23" si="6">SUM(D44)</f>
+        <f t="shared" ref="H23:I23" si="6">SUM(D44:D45)</f>
         <v>0</v>
       </c>
       <c r="I23">
@@ -1438,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1460,16 +1466,16 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
         <f>SUM(C47:C50)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26:I26" si="7">SUM(D47:D50)</f>
@@ -1485,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1499,7 +1505,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1507,18 +1513,18 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1528,7 +1534,7 @@
       </c>
       <c r="G29">
         <f>SUM(C52:C53)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <f t="shared" ref="H29:I29" si="8">SUM(D52:D53)</f>
@@ -1544,7 +1550,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1558,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1566,18 +1572,18 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1586,11 +1592,11 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <f>SUM(C55)</f>
-        <v>1</v>
+        <f>SUM(C55:C56)</f>
+        <v>2</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:I32" si="9">SUM(D55)</f>
+        <f t="shared" ref="H32:I32" si="9">SUM(D55:D56)</f>
         <v>0</v>
       </c>
       <c r="I32">
@@ -1603,7 +1609,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1611,18 +1617,18 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1631,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>SUM(C57)</f>
-        <v>2</v>
+        <f>SUM(C58)</f>
+        <v>4</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:I35" si="10">SUM(D57)</f>
+        <f t="shared" ref="H35:I35" si="10">SUM(D58)</f>
         <v>0</v>
       </c>
       <c r="I35">
@@ -1648,7 +1654,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -1662,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1670,18 +1676,18 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1690,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f>SUM(C59:C60)</f>
-        <v>3</v>
+        <f>SUM(C60:C62)</f>
+        <v>6</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:I38" si="11">SUM(D59:D60)</f>
+        <f t="shared" ref="H38:I38" si="11">SUM(D60:D62)</f>
         <v>0</v>
       </c>
       <c r="I38">
@@ -1707,7 +1713,7 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1715,11 +1721,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -1735,11 +1741,11 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>SUM(C62:C65)</f>
-        <v>61</v>
+        <f>SUM(C64:C67)</f>
+        <v>63</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:I41" si="12">SUM(D62:D65)</f>
+        <f t="shared" ref="H41:I41" si="12">SUM(D64:D67)</f>
         <v>2</v>
       </c>
       <c r="I41">
@@ -1763,18 +1769,18 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1783,11 +1789,11 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <f>SUM(C67:C68)</f>
+        <f>SUM(C69:C70)</f>
         <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:I44" si="13">SUM(D67:D68)</f>
+        <f t="shared" ref="H44:I44" si="13">SUM(D69:D70)</f>
         <v>1</v>
       </c>
       <c r="I44">
@@ -1810,18 +1816,18 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1844,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1858,7 +1864,7 @@
         <v>43</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1866,11 +1872,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
@@ -1886,15 +1892,15 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <f>SUM(C70:C71)</f>
+        <f>SUM(C72:C73)</f>
         <v>13</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="14">SUM(D70:D71)</f>
+        <f t="shared" ref="H50" si="14">SUM(D72:D73)</f>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>SUM(E70:E71)</f>
+        <f>SUM(E72:E73)</f>
         <v>1</v>
       </c>
     </row>
@@ -1903,7 +1909,7 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1911,11 +1917,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
@@ -1931,15 +1937,15 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <f>SUM(C73:C74)</f>
-        <v>10</v>
+        <f>SUM(C75:C76)</f>
+        <v>11</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53" si="15">SUM(D73:D74)</f>
+        <f t="shared" ref="H53" si="15">SUM(D75:D76)</f>
         <v>2</v>
       </c>
       <c r="I53">
-        <f>SUM(E73:E74)</f>
+        <f>SUM(E75:E76)</f>
         <v>0</v>
       </c>
     </row>
@@ -1956,13 +1962,25 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
       <c r="G56">
         <v>3</v>
       </c>
@@ -1973,85 +1991,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>51</v>
+      <c r="A62" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
         <v>53</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
       <c r="D64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2059,104 +2063,139 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>2</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>11</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>2</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C73">
-        <v>7</v>
-      </c>
-      <c r="D73">
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
         <v>2</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>3</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G7:I7"/>
@@ -2168,13 +2207,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00DB8CE-82BA-4208-80C1-CA4E3C66DAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCA330-9AC5-42AC-9677-CA2C316BFF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -578,6 +578,27 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,27 +630,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -963,8 +963,8 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,11 +1063,11 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="K4" s="27" t="s">
         <v>81</v>
       </c>
@@ -1129,11 +1129,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1195,11 +1195,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1254,11 +1254,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1313,11 +1313,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1360,11 +1360,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1407,11 +1407,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1466,11 +1466,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
@@ -1513,11 +1513,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -1572,11 +1572,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1617,11 +1617,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -1676,11 +1676,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -1721,11 +1721,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -1769,11 +1769,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -1816,11 +1816,11 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -1872,11 +1872,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
@@ -1917,11 +1917,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
@@ -1962,11 +1962,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
@@ -2189,13 +2189,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G7:I7"/>
@@ -2207,6 +2200,13 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCA330-9AC5-42AC-9677-CA2C316BFF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42822C-E720-48AD-B649-49BAE9C3B57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>Residency</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Oriental Mindoro</t>
   </si>
   <si>
-    <t>Palawan</t>
-  </si>
-  <si>
     <t>Camarines Sur</t>
   </si>
   <si>
@@ -174,18 +171,12 @@
     <t>Negros Oriental</t>
   </si>
   <si>
-    <t>Northern Samar</t>
-  </si>
-  <si>
     <t>Zamboanga del Sur</t>
   </si>
   <si>
     <t>Lanao del Norte</t>
   </si>
   <si>
-    <t>Misamis Oriental</t>
-  </si>
-  <si>
     <t>Davao del Sur</t>
   </si>
   <si>
@@ -295,6 +286,45 @@
   </si>
   <si>
     <t>Misamis Occidental</t>
+  </si>
+  <si>
+    <t>Ilocos Norte</t>
+  </si>
+  <si>
+    <t>Ilocos Sur</t>
+  </si>
+  <si>
+    <t>Romblon</t>
+  </si>
+  <si>
+    <t>Occidental Mindoro</t>
+  </si>
+  <si>
+    <t>Catanduanes</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
+    <t>Camiguin</t>
+  </si>
+  <si>
+    <t>Bukidnon</t>
+  </si>
+  <si>
+    <t>Cotabato</t>
+  </si>
+  <si>
+    <t>Agusan Del Norte</t>
+  </si>
+  <si>
+    <t>Maguindanao</t>
+  </si>
+  <si>
+    <t>For Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Verification </t>
   </si>
 </sst>
 </file>
@@ -316,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,6 +614,39 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,47 +659,17 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,16 +1034,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1012,28 +1051,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>799</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:C103, G56, K2)</f>
-        <v>3018</v>
+        <f>SUM(C2:C124, G56, K2)</f>
+        <v>4651</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:D103, H56)</f>
-        <v>96</v>
+        <f>SUM(D2:D124, H56)</f>
+        <v>298</v>
       </c>
       <c r="I2">
-        <f>SUM(E2:E103, I56)</f>
-        <v>50</v>
+        <f>SUM(E2:E124, I56)</f>
+        <v>199</v>
       </c>
       <c r="K2">
-        <v>893</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,13 +1080,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1055,21 +1094,21 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="K4" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,29 +1116,29 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <f>SUM(C2:C18)</f>
-        <v>1634</v>
+        <f>SUM(C2:C19)</f>
+        <v>3335</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:I5" si="0">SUM(D2:D18)</f>
-        <v>71</v>
+        <f t="shared" ref="H5:I5" si="0">SUM(D2:D19)</f>
+        <v>167</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>1976</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,47 +1160,51 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="K7" s="28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <f>SUM(C20:C21)</f>
-        <v>11</v>
+        <f>SUM(C21:C25)</f>
+        <v>50</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:I8" si="1">SUM(D20:D21)</f>
-        <v>0</v>
+        <f t="shared" ref="H8:I8" si="1">SUM(D21:D25)</f>
+        <v>10</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="28" t="s">
-        <v>83</v>
+      <c r="K8">
+        <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,17 +1212,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>146</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1187,44 +1226,44 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="G10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <f>SUM(C23:C25)</f>
-        <v>19</v>
+        <f>SUM(C27:C30)</f>
+        <v>27</v>
       </c>
       <c r="H11">
-        <f>SUM(D23:D25)</f>
-        <v>0</v>
+        <f t="shared" ref="H11:I11" si="2">SUM(D27:D30)</f>
+        <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11" si="2">SUM(E23:E25)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1232,13 +1271,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1246,44 +1285,44 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="G13" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <f>SUM(C27:C32)</f>
-        <v>90</v>
+        <f>SUM(C32:C38)</f>
+        <v>224</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:I14" si="3">SUM(D27:D32)</f>
-        <v>5</v>
+        <f t="shared" ref="H14:I14" si="3">SUM(D32:D38)</f>
+        <v>25</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1291,10 +1330,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1305,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1313,36 +1352,36 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="G16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <f>SUM(C34:C38)</f>
-        <v>201</v>
+        <f>SUM(C40:C45)</f>
+        <v>663</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:I17" si="4">SUM(D34:D38)</f>
-        <v>11</v>
+        <f t="shared" ref="H17:I17" si="4">SUM(D40:D45)</f>
+        <v>56</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,75 +1389,87 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="A19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>409</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="G20">
-        <f>SUM(C40:C42)</f>
-        <v>4</v>
+        <f>SUM(C47:C51)</f>
+        <v>15</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:I20" si="5">SUM(D40:D42)</f>
-        <v>0</v>
+        <f t="shared" ref="H20:I20" si="5">SUM(D47:D51)</f>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
+      <c r="A23" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1427,24 +1478,24 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(C44:C45)</f>
-        <v>4</v>
+        <f>SUM(C53:C56)</f>
+        <v>26</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:I23" si="6">SUM(D44:D45)</f>
+        <f>SUM(D53:D56)</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
+        <f>SUM(E53:E56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>24</v>
+      <c r="A24" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1454,8 +1505,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>25</v>
+      <c r="A25" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1466,150 +1517,152 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+      <c r="G25" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
-        <f>SUM(C47:C50)</f>
+        <f>SUM(C58:C63)</f>
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:I26" si="6">SUM(D58:D63)</f>
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:I26" si="7">SUM(D47:D50)</f>
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>39</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C28">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>28</v>
+      <c r="A29" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <f>SUM(C52:C53)</f>
-        <v>33</v>
+        <f>SUM(C65:C67)</f>
+        <v>42</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:I29" si="8">SUM(D52:D53)</f>
-        <v>2</v>
+        <f t="shared" ref="H29:I29" si="7">SUM(D65:D67)</f>
+        <v>9</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>29</v>
+      <c r="A30" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="G31" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <f>SUM(C55:C56)</f>
-        <v>2</v>
+        <f>SUM(C69:C69)</f>
+        <v>3</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:I32" si="9">SUM(D55:D56)</f>
+        <f>SUM(D69:D69)</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(E69:E69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>32</v>
+      <c r="A34" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1617,363 +1670,394 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C72)</f>
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <f>SUM(D72)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>SUM(E72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>SUM(C74:C78)</f>
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:I38" si="8">SUM(D74:D78)</f>
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>149</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>161</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f>SUM(C80:C84)</f>
+        <v>91</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:I41" si="9">SUM(D80:D84)</f>
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>221</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="G43" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f>SUM(C58)</f>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H35:I35" si="10">SUM(D58)</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <f>SUM(C86:C88)</f>
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <f>SUM(D86:D88)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>SUM(E86:E88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f>SUM(C90)</f>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:I47" si="10">SUM(D90)</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>98</v>
-      </c>
-      <c r="D36">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>SUM(C92:C93)</f>
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <f>SUM(D92:D93)</f>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>SUM(E92:E93)</f>
         <v>7</v>
       </c>
-      <c r="E36">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f>SUM(C95:C97)</f>
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <f>SUM(D95:D97)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="I53">
+        <f>SUM(E95:E97)</f>
         <v>2</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f>SUM(C60:C62)</f>
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:I38" si="11">SUM(D60:D62)</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f>SUM(C64:C67)</f>
-        <v>63</v>
-      </c>
-      <c r="H41">
-        <f t="shared" ref="H41:I41" si="12">SUM(D64:D67)</f>
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="32" t="s">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <f>SUM(C69:C70)</f>
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ref="H44:I44" si="13">SUM(D69:D70)</f>
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>SUM(C72:C73)</f>
-        <v>13</v>
-      </c>
-      <c r="H50">
-        <f t="shared" ref="H50" si="14">SUM(D72:D73)</f>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f>SUM(E72:E73)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52">
-        <v>28</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <f>SUM(C75:C76)</f>
-        <v>11</v>
-      </c>
-      <c r="H53">
-        <f t="shared" ref="H53" si="15">SUM(D75:D76)</f>
-        <v>2</v>
-      </c>
-      <c r="I53">
-        <f>SUM(E75:E76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>86</v>
+      <c r="A56" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1992,124 +2076,138 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>48</v>
+      <c r="A58" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64">
-        <v>53</v>
-      </c>
-      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65">
+        <v>34</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
         <v>2</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
       <c r="D69">
         <v>0</v>
       </c>
@@ -2118,77 +2216,308 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>55</v>
+      <c r="A70" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>74</v>
+      </c>
+      <c r="D80">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C72">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73">
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>2</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G7:I7"/>
@@ -2200,13 +2529,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42822C-E720-48AD-B649-49BAE9C3B57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336F7D1-D8E1-4EE7-ACFE-7E9C19D04671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -608,68 +608,68 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,7 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1102,16 +1102,18 @@
       <c r="E4">
         <v>19</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="K4" s="27" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1142,16 @@
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
         <v>4360</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>SUM(H5,H8,H11,H14, H17, H20, H23, H50)</f>
+        <v>261</v>
+      </c>
+      <c r="M5">
+        <f>SUM(I5,I8,I11,I14, I17, I20, I23, I50)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1168,16 +1178,18 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="K7" s="28" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="K7" s="47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1218,16 @@
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" ref="L8:M8" si="2">SUM(H32,H29,H26,H35,H38,H41,H44,H53)</f>
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1234,13 +1254,13 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1258,15 +1278,15 @@
         <v>27</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:I11" si="2">SUM(D27:D30)</f>
+        <f t="shared" ref="H11:I11" si="3">SUM(D27:D30)</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1293,13 +1313,13 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1317,15 +1337,15 @@
         <v>224</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:I14" si="3">SUM(D32:D38)</f>
+        <f t="shared" ref="H14:I14" si="4">SUM(D32:D38)</f>
         <v>25</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1352,11 +1372,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1376,11 +1396,11 @@
         <v>663</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:I17" si="4">SUM(D40:D45)</f>
+        <f t="shared" ref="H17:I17" si="5">SUM(D40:D45)</f>
         <v>56</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
@@ -1411,11 +1431,11 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20">
@@ -1423,11 +1443,11 @@
         <v>15</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:I20" si="5">SUM(D47:D51)</f>
+        <f t="shared" ref="H20:I20" si="6">SUM(D47:D51)</f>
         <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1458,11 +1478,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1517,11 +1537,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
@@ -1529,11 +1549,11 @@
         <v>42</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:I26" si="6">SUM(D58:D63)</f>
+        <f t="shared" ref="H26:I26" si="7">SUM(D58:D63)</f>
         <v>7</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -1564,11 +1584,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -1588,11 +1608,11 @@
         <v>42</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:I29" si="7">SUM(D65:D67)</f>
+        <f t="shared" ref="H29:I29" si="8">SUM(D65:D67)</f>
         <v>9</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -1611,11 +1631,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1670,11 +1690,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -1729,11 +1749,11 @@
       <c r="E37">
         <v>6</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -1753,11 +1773,11 @@
         <v>11</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:I38" si="8">SUM(D74:D78)</f>
+        <f t="shared" ref="H38:I38" si="9">SUM(D74:D78)</f>
         <v>3</v>
       </c>
       <c r="I38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1774,11 +1794,11 @@
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -1798,11 +1818,11 @@
         <v>91</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:I41" si="9">SUM(D80:D84)</f>
+        <f t="shared" ref="H41:I41" si="10">SUM(D80:D84)</f>
         <v>13</v>
       </c>
       <c r="I41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L41" s="6"/>
@@ -1834,11 +1854,11 @@
       <c r="E43">
         <v>10</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -1881,11 +1901,11 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
@@ -1905,11 +1925,11 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:I47" si="10">SUM(D90)</f>
+        <f t="shared" ref="H47:I47" si="11">SUM(D90)</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1940,11 +1960,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="G49" s="44" t="s">
+      <c r="G49" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -1987,11 +2007,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -2046,11 +2066,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
@@ -2426,7 +2446,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="45" t="s">
         <v>94</v>
       </c>
       <c r="C90">
@@ -2510,7 +2530,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="G40:I40"/>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336F7D1-D8E1-4EE7-ACFE-7E9C19D04671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A2394-A22B-4F8D-8E58-D0565E33E496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>Residency</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Isabela</t>
   </si>
   <si>
-    <t>Nueva Viscaya</t>
-  </si>
-  <si>
     <t>Bulacan</t>
   </si>
   <si>
@@ -324,7 +321,7 @@
     <t>For Verification</t>
   </si>
   <si>
-    <t xml:space="preserve">For Verification </t>
+    <t>Nueva Vizcaya</t>
   </si>
 </sst>
 </file>
@@ -605,7 +602,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -641,34 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -999,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,45 +1031,53 @@
         <v>3</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>77</v>
-      </c>
+      <c r="K1" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>799</v>
+        <v>940</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:C124, G56, K2)</f>
-        <v>4651</v>
+        <f>SUM(C2:C119, K2)</f>
+        <v>4932</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:D124, H56)</f>
-        <v>298</v>
+        <f>SUM(D2:D119, L2)</f>
+        <v>315</v>
       </c>
       <c r="I2">
-        <f>SUM(E2:E124, I56)</f>
-        <v>199</v>
+        <f>SUM(E2:E119, M2)</f>
+        <v>242</v>
       </c>
       <c r="K2">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1094,61 +1099,61 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="K4" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <f>SUM(C2:C19)</f>
-        <v>3335</v>
+        <v>3510</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="0">SUM(D2:D19)</f>
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>4360</v>
+        <v>4651</v>
       </c>
       <c r="L5">
         <f>SUM(H5,H8,H11,H14, H17, H20, H23, H50)</f>
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="M5">
         <f>SUM(I5,I8,I11,I14, I17, I20, I23, I50)</f>
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1156,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -1170,31 +1175,31 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="K7" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="K7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1204,7 +1209,7 @@
       </c>
       <c r="G8">
         <f>SUM(C21:C25)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:I8" si="1">SUM(D21:D25)</f>
@@ -1216,15 +1221,15 @@
       </c>
       <c r="K8">
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:M8" si="2">SUM(H32,H29,H26,H35,H38,H41,H44,H53)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1232,13 +1237,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1246,44 +1251,44 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="G10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <f>SUM(C27:C30)</f>
-        <v>27</v>
+        <f>SUM(C27:C29)</f>
+        <v>28</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:I11" si="3">SUM(D27:D30)</f>
+        <f>SUM(D27:D29)</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>SUM(E27:E29)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1291,13 +1296,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1305,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -1313,35 +1318,35 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <f>SUM(C32:C38)</f>
-        <v>224</v>
+        <f>SUM(C31:C36)</f>
+        <v>257</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:I14" si="4">SUM(D32:D38)</f>
+        <f>SUM(D31:D36)</f>
         <v>25</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f>SUM(E31:E36)</f>
         <v>12</v>
       </c>
     </row>
@@ -1350,10 +1355,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1372,18 +1377,18 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="G16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1392,16 +1397,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>SUM(C40:C45)</f>
-        <v>663</v>
+        <f>SUM(C38:C42)</f>
+        <v>747</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:I17" si="5">SUM(D40:D45)</f>
-        <v>56</v>
+        <f>SUM(D38:D42)</f>
+        <v>59</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>SUM(E38:E42)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1409,10 +1414,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1420,34 +1425,34 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20">
-        <f>SUM(C47:C51)</f>
+        <f>SUM(C44:C48)</f>
         <v>15</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:I20" si="6">SUM(D47:D51)</f>
-        <v>1</v>
+        <f t="shared" ref="H20:I20" si="3">SUM(D44:D48)</f>
+        <v>2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1470,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1478,15 +1483,15 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="G22" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1498,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(C53:C56)</f>
-        <v>26</v>
+        <f>SUM(C50:C52)</f>
+        <v>20</v>
       </c>
       <c r="H23">
-        <f>SUM(D53:D56)</f>
+        <f>SUM(D50:D52)</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>SUM(E53:E56)</f>
+        <f>SUM(E50:E52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1526,7 +1531,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1537,23 +1542,23 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="G25" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26">
-        <f>SUM(C58:C63)</f>
-        <v>42</v>
+        <f>SUM(C54:C59)</f>
+        <v>43</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:I26" si="7">SUM(D58:D63)</f>
+        <f t="shared" ref="H26:I26" si="4">SUM(D54:D59)</f>
         <v>7</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -1576,23 +1581,23 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1604,63 +1609,61 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <f>SUM(C65:C67)</f>
-        <v>42</v>
+        <f>SUM(C61:C63)</f>
+        <v>43</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:I29" si="8">SUM(D65:D67)</f>
+        <f t="shared" ref="H29:I29" si="5">SUM(D61:D63)</f>
         <v>9</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="A31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C32">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>SUM(C65:C66)</f>
         <v>4</v>
       </c>
-      <c r="G32">
-        <f>SUM(C69:C69)</f>
-        <v>3</v>
-      </c>
       <c r="H32">
-        <f>SUM(D69:D69)</f>
+        <f t="shared" ref="H32:I32" si="6">SUM(D65:D66)</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>SUM(E69:E69)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1668,10 +1671,10 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1682,43 +1685,43 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35">
-        <f>SUM(C72)</f>
-        <v>9</v>
+        <f>SUM(C68)</f>
+        <v>10</v>
       </c>
       <c r="H35">
-        <f>SUM(D72)</f>
+        <f>SUM(D68)</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>SUM(E72)</f>
+        <f>SUM(E68)</f>
         <v>0</v>
       </c>
     </row>
@@ -1727,354 +1730,344 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="G37" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="C38">
+        <v>176</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f>SUM(C70:C74)</f>
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:I38" si="7">SUM(D70:D74)</f>
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>201</v>
+      </c>
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="G37" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f>SUM(C74:C78)</f>
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:I38" si="9">SUM(D74:D78)</f>
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="9"/>
-        <v>1</v>
+      <c r="E39">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <f>SUM(C80:C84)</f>
-        <v>91</v>
+        <f>SUM(C76:C79)</f>
+        <v>92</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:I41" si="10">SUM(D80:D84)</f>
-        <v>13</v>
+        <f>SUM(D76:D79)</f>
+        <v>14</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>SUM(E76:E79)</f>
+        <v>36</v>
       </c>
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43">
-        <v>69</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
-      </c>
-      <c r="E43">
+      <c r="G43" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>SUM(C81:C83)</f>
         <v>10</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="H44">
+        <f>SUM(D81:D83)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>SUM(E81:E83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44">
-        <v>22</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="G44">
-        <f>SUM(C86:C88)</f>
-        <v>10</v>
-      </c>
-      <c r="H44">
-        <f>SUM(D86:D88)</f>
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <f>SUM(E86:E88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45">
-        <v>41</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <f>SUM(C90)</f>
+        <f>SUM(C85)</f>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:I47" si="11">SUM(D90)</f>
+        <f t="shared" ref="H47:I47" si="8">SUM(D85)</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>SUM(C87:C88)</f>
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <f>SUM(D87:D88)</f>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>SUM(E87:E88)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C49">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f>SUM(C90:C92)</f>
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <f>SUM(D90:D92)</f>
         <v>3</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="42" t="s">
+      <c r="I53">
+        <f>SUM(E90:E92)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>SUM(C92:C93)</f>
-        <v>20</v>
-      </c>
-      <c r="H50">
-        <f>SUM(D92:D93)</f>
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <f>SUM(E92:E93)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <f>SUM(C95:C97)</f>
-        <v>15</v>
-      </c>
-      <c r="H53">
-        <f>SUM(D95:D97)</f>
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <f>SUM(E95:E97)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55">
-        <v>11</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>96</v>
+      <c r="A56" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -2095,275 +2088,275 @@
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70">
         <v>6</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65">
-        <v>34</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72">
-        <v>9</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="D74">
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79">
         <v>2</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80">
-        <v>74</v>
-      </c>
-      <c r="D80">
-        <v>13</v>
-      </c>
-      <c r="E80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -2376,161 +2369,110 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>93</v>
+      <c r="A87" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>52</v>
+      <c r="A88" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>53</v>
+      <c r="A92" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C95">
-        <v>8</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97">
-        <v>6</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="G55:I55"/>
@@ -2547,10 +2489,6 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A2394-A22B-4F8D-8E58-D0565E33E496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A284025-65C3-47B2-979A-CFB09600CD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Residency</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Quezon</t>
   </si>
   <si>
-    <t>Marinduque</t>
-  </si>
-  <si>
     <t>Oriental Mindoro</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>Misamis Occidental</t>
-  </si>
-  <si>
-    <t>Ilocos Norte</t>
   </si>
   <si>
     <t>Ilocos Sur</t>
@@ -605,6 +599,21 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,21 +660,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -999,8 +993,8 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,50 +1025,50 @@
         <v>3</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="K1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <f>SUM(C2:C119, K2)</f>
-        <v>4932</v>
+        <v>5223</v>
       </c>
       <c r="H2">
         <f>SUM(D2:D119, L2)</f>
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="I2">
         <f>SUM(E2:E119, M2)</f>
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1085,13 +1079,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1099,61 +1093,61 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="K4" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="K4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <f>SUM(C2:C19)</f>
-        <v>3510</v>
+        <v>3621</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="0">SUM(D2:D19)</f>
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>4651</v>
+        <v>4817</v>
       </c>
       <c r="L5">
         <f>SUM(H5,H8,H11,H14, H17, H20, H23, H50)</f>
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="M5">
         <f>SUM(I5,I8,I11,I14, I17, I20, I23, I50)</f>
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1161,13 +1155,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1175,61 +1169,61 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="K7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="G7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="K7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="G8">
-        <f>SUM(C21:C25)</f>
+        <f>SUM(C21:C24)</f>
         <v>52</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:I8" si="1">SUM(D21:D25)</f>
+        <f>SUM(D21:D24)</f>
         <v>10</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E21:E24)</f>
+        <v>2</v>
       </c>
       <c r="K8">
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:M8" si="2">SUM(H32,H29,H26,H35,H38,H41,H44,H53)</f>
-        <v>37</v>
+        <f t="shared" ref="L8:M8" si="1">SUM(H32,H29,H26,H35,H38,H41,H44,H53)</f>
+        <v>38</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1237,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1257,38 +1251,38 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <f>SUM(C27:C29)</f>
-        <v>28</v>
+        <f>SUM(C26:C28)</f>
+        <v>29</v>
       </c>
       <c r="H11">
-        <f>SUM(D27:D29)</f>
+        <f>SUM(D26:D28)</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>SUM(E27:E29)</f>
-        <v>10</v>
+        <f>SUM(E26:E28)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1296,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1310,43 +1304,43 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <f>SUM(C31:C36)</f>
-        <v>257</v>
+        <f>SUM(C30:C35)</f>
+        <v>275</v>
       </c>
       <c r="H14">
-        <f>SUM(D31:D36)</f>
+        <f>SUM(D30:D35)</f>
         <v>25</v>
       </c>
       <c r="I14">
-        <f>SUM(E31:E36)</f>
+        <f>SUM(E30:E35)</f>
         <v>12</v>
       </c>
     </row>
@@ -1355,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1369,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1377,11 +1371,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="G16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1397,16 +1391,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>SUM(C38:C42)</f>
-        <v>747</v>
+        <f>SUM(C37:C41)</f>
+        <v>781</v>
       </c>
       <c r="H17">
-        <f>SUM(D38:D42)</f>
-        <v>59</v>
+        <f>SUM(D37:D41)</f>
+        <v>61</v>
       </c>
       <c r="I17">
-        <f>SUM(E38:E42)</f>
-        <v>29</v>
+        <f>SUM(E37:E41)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,10 +1419,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1436,24 +1430,24 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="G19" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20">
-        <f>SUM(C44:C48)</f>
+        <f>SUM(C43:C46)</f>
         <v>15</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:I20" si="3">SUM(D44:D48)</f>
+        <f>SUM(D43:D46)</f>
         <v>2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>SUM(E43:E46)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,18 +1477,18 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="G22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1503,368 +1497,366 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(C50:C52)</f>
-        <v>20</v>
+        <f>SUM(C48:C51)</f>
+        <v>22</v>
       </c>
       <c r="H23">
-        <f>SUM(D50:D52)</f>
-        <v>0</v>
+        <f t="shared" ref="H23:I23" si="2">SUM(D48:D51)</f>
+        <v>1</v>
       </c>
       <c r="I23">
-        <f>SUM(E50:E52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+      <c r="G25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
       <c r="G26">
-        <f>SUM(C54:C59)</f>
+        <f>SUM(C53:C58)</f>
         <v>43</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:I26" si="4">SUM(D54:D59)</f>
+        <f t="shared" ref="H26:I26" si="3">SUM(D53:D58)</f>
         <v>7</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f>SUM(C60:C62)</f>
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:I29" si="4">SUM(D60:D62)</f>
         <v>9</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
         <v>96</v>
       </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <f>SUM(C61:C63)</f>
-        <v>43</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:I29" si="5">SUM(D61:D63)</f>
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="5"/>
-        <v>3</v>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="G32">
-        <f>SUM(C65:C66)</f>
+        <f>SUM(C64:C65)</f>
         <v>4</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:I32" si="6">SUM(D65:D66)</f>
+        <f t="shared" ref="H32:I32" si="5">SUM(D64:D65)</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="G34" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="G34" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C67)</f>
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <f>SUM(D67)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>SUM(E67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>178</v>
+      </c>
+      <c r="D37">
         <v>17</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f>SUM(C68)</f>
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <f>SUM(D68)</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f>SUM(E68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G37" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>SUM(C69:C73)</f>
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:I38" si="6">SUM(D69:D73)</f>
         <v>3</v>
       </c>
-      <c r="G38">
-        <f>SUM(C70:C74)</f>
-        <v>12</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:I38" si="7">SUM(D70:D74)</f>
+      <c r="I38">
+        <f t="shared" si="6"/>
         <v>3</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>8</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <f>SUM(C76:C79)</f>
-        <v>92</v>
+        <f>SUM(C75:C79)</f>
+        <v>95</v>
       </c>
       <c r="H41">
-        <f>SUM(D76:D79)</f>
-        <v>14</v>
+        <f t="shared" ref="H41:I41" si="7">SUM(D75:D79)</f>
+        <v>15</v>
       </c>
       <c r="I41">
-        <f>SUM(E76:E79)</f>
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42">
-        <v>27</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f>SUM(C81:C83)</f>
@@ -1876,55 +1868,43 @@
       </c>
       <c r="I44">
         <f>SUM(E81:E83)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <f>SUM(C85)</f>
         <v>1</v>
@@ -1939,38 +1919,50 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>95</v>
+      <c r="A48" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G49" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
+      <c r="A49" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f>SUM(C87:C88)</f>
@@ -1982,12 +1974,12 @@
       </c>
       <c r="I50">
         <f>SUM(E87:E88)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2000,28 +1992,28 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="G52" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
       <c r="G53">
         <f>SUM(C90:C92)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <f>SUM(D90:D92)</f>
@@ -2037,10 +2029,10 @@
         <v>39</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2051,26 +2043,26 @@
         <v>40</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2090,44 +2082,44 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
+      <c r="C60">
+        <v>33</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,94 +2127,94 @@
         <v>43</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2230,7 +2222,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2244,44 +2236,44 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,13 +2281,13 @@
         <v>47</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,7 +2295,7 @@
         <v>48</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2317,18 +2309,18 @@
         <v>49</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2337,12 +2329,12 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -2356,7 +2348,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -2370,7 +2362,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2379,12 +2371,12 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2398,7 +2390,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87">
         <v>19</v>
@@ -2407,12 +2399,12 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -2426,10 +2418,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -2440,7 +2432,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2454,7 +2446,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -2468,6 +2460,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
@@ -2475,20 +2481,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Patients.xlsx
+++ b/Patients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Figueroa\Documents\GitHub\phcoronatracker.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A284025-65C3-47B2-979A-CFB09600CD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8A91E4-115B-46D0-A2BA-5B70CC6B0105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EA9AA44-6635-4787-83EE-57E4B0C3D776}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Residency</t>
   </si>
@@ -316,6 +316,33 @@
   </si>
   <si>
     <t>Nueva Vizcaya</t>
+  </si>
+  <si>
+    <t>Ilocos Norte</t>
+  </si>
+  <si>
+    <t>Quirino</t>
+  </si>
+  <si>
+    <t>Marinduque</t>
+  </si>
+  <si>
+    <t>Palawan</t>
+  </si>
+  <si>
+    <t>Masbate</t>
+  </si>
+  <si>
+    <t>Bohol</t>
+  </si>
+  <si>
+    <t>Northern Samar</t>
+  </si>
+  <si>
+    <t>Zamboanga Sibugay</t>
+  </si>
+  <si>
+    <t>Misamis Oriental</t>
   </si>
 </sst>
 </file>
@@ -337,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +632,48 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,47 +695,8 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB21FDF-FF77-4BD0-AA04-6D140B96F3E8}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,42 +1069,42 @@
       <c r="I1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>956</v>
+        <v>994</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:C119, K2)</f>
-        <v>5223</v>
+        <f>SUM(C2:C124, K2)</f>
+        <v>5453</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:D119, L2)</f>
-        <v>335</v>
+        <f>SUM(D2:D124, L2)</f>
+        <v>349</v>
       </c>
       <c r="I2">
-        <f>SUM(E2:E119, M2)</f>
-        <v>295</v>
+        <f>SUM(E2:E124, M2)</f>
+        <v>353</v>
       </c>
       <c r="K2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1079,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1093,61 +1129,61 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>28</v>
-      </c>
-      <c r="G4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="K4" s="32" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <f>SUM(C2:C19)</f>
-        <v>3621</v>
+        <v>3785</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="0">SUM(D2:D19)</f>
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="K5">
         <f>SUM(G5,G8,G11,G14, G17, G20, G23, G50)</f>
-        <v>4817</v>
+        <v>5050</v>
       </c>
       <c r="L5">
         <f>SUM(H5,H8,H11,H14, H17, H20, H23, H50)</f>
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M5">
         <f>SUM(I5,I8,I11,I14, I17, I20, I23, I50)</f>
-        <v>226</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1155,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1169,61 +1205,61 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D7">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="K7" s="33" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="K7" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
       <c r="G8">
-        <f>SUM(C21:C24)</f>
-        <v>52</v>
+        <f>SUM(C21:C25)</f>
+        <v>61</v>
       </c>
       <c r="H8">
-        <f>SUM(D21:D24)</f>
+        <f t="shared" ref="H8:I8" si="1">SUM(D21:D25)</f>
         <v>10</v>
       </c>
       <c r="I8">
-        <f>SUM(E21:E24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K8">
         <f>SUM(G32,G29,G26,G35,G38,G41,G44,G53)</f>
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:M8" si="1">SUM(H32,H29,H26,H35,H38,H41,H44,H53)</f>
-        <v>38</v>
+        <f t="shared" ref="L8:M8" si="2">SUM(H32,H29,H26,H35,H38,H41,H44,H53)</f>
+        <v>39</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1231,13 +1267,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1245,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1253,35 +1289,35 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <f>SUM(C26:C28)</f>
-        <v>29</v>
+        <f>SUM(C27:C30)</f>
+        <v>35</v>
       </c>
       <c r="H11">
-        <f>SUM(D26:D28)</f>
+        <f t="shared" ref="H11:I11" si="3">SUM(D27:D30)</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>SUM(E26:E28)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -1290,13 +1326,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1304,44 +1340,44 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <f>SUM(C30:C35)</f>
-        <v>275</v>
+        <f>SUM(C32:C37)</f>
+        <v>285</v>
       </c>
       <c r="H14">
-        <f>SUM(D30:D35)</f>
+        <f>SUM(D32:D37)</f>
         <v>25</v>
       </c>
       <c r="I14">
-        <f>SUM(E30:E35)</f>
-        <v>12</v>
+        <f>SUM(E32:E37)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1349,13 +1385,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1371,11 +1407,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1385,22 +1421,22 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="G17">
-        <f>SUM(C37:C41)</f>
-        <v>781</v>
+        <f>SUM(C39:C44)</f>
+        <v>818</v>
       </c>
       <c r="H17">
-        <f>SUM(D37:D41)</f>
-        <v>61</v>
+        <f t="shared" ref="H17:I17" si="4">SUM(D39:D44)</f>
+        <v>62</v>
       </c>
       <c r="I17">
-        <f>SUM(E37:E41)</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1408,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1422,31 +1458,31 @@
         <v>93</v>
       </c>
       <c r="C19">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20">
-        <f>SUM(C43:C46)</f>
+        <f>SUM(C46:C50)</f>
         <v>15</v>
       </c>
       <c r="H20">
-        <f>SUM(D43:D46)</f>
+        <f t="shared" ref="H20:I20" si="5">SUM(D46:D50)</f>
         <v>2</v>
       </c>
       <c r="I20">
-        <f>SUM(E43:E46)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -1455,7 +1491,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1469,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1477,18 +1513,18 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1497,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUM(C48:C51)</f>
-        <v>22</v>
+        <f>SUM(C52:C56)</f>
+        <v>28</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:I23" si="2">SUM(D48:D51)</f>
+        <f>SUM(D52:D56)</f>
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f>SUM(E52:E56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1524,215 +1560,229 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="28" t="s">
+      <c r="A25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>15</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
       <c r="G26">
-        <f>SUM(C53:C58)</f>
-        <v>43</v>
+        <f>SUM(C58:C63)</f>
+        <v>47</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:I26" si="3">SUM(D53:D58)</f>
+        <f t="shared" ref="H26:I26" si="6">SUM(D58:D63)</f>
         <v>7</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="G28" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G29">
-        <f>SUM(C60:C62)</f>
-        <v>43</v>
+        <f>SUM(C65:C67)</f>
+        <v>51</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:I29" si="4">SUM(D60:D62)</f>
+        <f>SUM(D65:D67)</f>
         <v>9</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f>SUM(E65:E67)</f>
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>25</v>
+      <c r="A30" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <f>SUM(C64:C65)</f>
-        <v>4</v>
+        <f>SUM(C69:C70)</f>
+        <v>6</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:I32" si="5">SUM(D64:D65)</f>
+        <f t="shared" ref="H32:I32" si="7">SUM(D69:D70)</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C72:C73)</f>
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:I35" si="8">SUM(D72:D73)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>25</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>6</v>
-      </c>
-      <c r="G35">
-        <f>SUM(C67)</f>
-        <v>11</v>
-      </c>
-      <c r="H35">
-        <f>SUM(D67)</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f>SUM(E67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>178</v>
-      </c>
-      <c r="D37">
-        <v>17</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>69</v>
@@ -1741,57 +1791,45 @@
       <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38">
-        <v>209</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
       <c r="G38">
-        <f>SUM(C69:C73)</f>
+        <f>SUM(C75:C79)</f>
         <v>12</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:I38" si="6">SUM(D69:D73)</f>
+        <f t="shared" ref="H38:I38" si="9">SUM(D75:D79)</f>
         <v>3</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>70</v>
@@ -1801,43 +1839,57 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>300</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <f>SUM(C81:C84)</f>
+        <v>97</v>
+      </c>
+      <c r="H41">
+        <f>SUM(D81:D84)</f>
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <f>SUM(E81:E84)</f>
+        <v>38</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C41">
-        <v>29</v>
-      </c>
-      <c r="D41">
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>3</v>
-      </c>
-      <c r="G41">
-        <f>SUM(C75:C79)</f>
-        <v>95</v>
-      </c>
-      <c r="H41">
-        <f t="shared" ref="H41:I41" si="7">SUM(D75:D79)</f>
-        <v>15</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>71</v>
@@ -1846,57 +1898,43 @@
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>85</v>
+      <c r="A44" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44">
-        <f>SUM(C81:C83)</f>
-        <v>10</v>
+        <f>SUM(C86:C88)</f>
+        <v>11</v>
       </c>
       <c r="H44">
-        <f>SUM(D81:D83)</f>
+        <f>SUM(D86:D88)</f>
         <v>1</v>
       </c>
       <c r="I44">
-        <f>SUM(E81:E83)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+        <f>SUM(E86:E88)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>72</v>
@@ -1905,45 +1943,57 @@
       <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
       <c r="G47">
-        <f>SUM(C85)</f>
+        <f>SUM(C90)</f>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:I47" si="8">SUM(D85)</f>
+        <f t="shared" ref="H47:I47" si="10">SUM(D90)</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>37</v>
+      <c r="A48" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>86</v>
+      <c r="A49" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>73</v>
@@ -1952,46 +2002,44 @@
       <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>79</v>
+      <c r="A50" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <f>SUM(C87:C88)</f>
-        <v>22</v>
+        <f>SUM(C92:C93)</f>
+        <v>23</v>
       </c>
       <c r="H50">
-        <f>SUM(D87:D88)</f>
+        <f>SUM(D92:D93)</f>
         <v>1</v>
       </c>
       <c r="I50">
-        <f>SUM(E87:E88)</f>
+        <f>SUM(E92:E93)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
       <c r="G52" s="40" t="s">
         <v>80</v>
       </c>
@@ -1999,51 +2047,51 @@
       <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>38</v>
+      <c r="A53" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <f>SUM(C90:C92)</f>
-        <v>14</v>
+        <f>SUM(C95:C97)</f>
+        <v>15</v>
       </c>
       <c r="H53">
-        <f>SUM(D90:D92)</f>
+        <f>SUM(D95:D97)</f>
         <v>3</v>
       </c>
       <c r="I53">
-        <f>SUM(E90:E92)</f>
-        <v>2</v>
+        <f>SUM(E95:E97)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>39</v>
+      <c r="A54" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>40</v>
+      <c r="A55" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2058,8 +2106,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>87</v>
+      <c r="A56" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2080,237 +2128,240 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="48"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C60">
-        <v>33</v>
-      </c>
-      <c r="D60">
+      <c r="C66">
+        <v>42</v>
+      </c>
+      <c r="D66">
         <v>6</v>
       </c>
-      <c r="E60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-      <c r="D61">
+      <c r="E66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75">
-        <v>77</v>
-      </c>
-      <c r="D75">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76">
-        <v>11</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
       <c r="D78">
         <v>0</v>
       </c>
@@ -2319,39 +2370,39 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>93</v>
+      <c r="A79" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>77</v>
+      <c r="A81" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>90</v>
+      <c r="A82" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2361,105 +2412,171 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>50</v>
+      <c r="A83" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>51</v>
+      <c r="A87" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>52</v>
+      <c r="A88" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C90">
-        <v>7</v>
-      </c>
-      <c r="D90">
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C92">
+      <c r="C97">
         <v>6</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G7:I7"/>
@@ -2467,20 +2584,10 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G52:I52"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
